--- a/site/res/json/last-month-raceData2024.json.xlsx
+++ b/site/res/json/last-month-raceData2024.json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\frimleyFlyers\site\res\json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6CBE866-EEF8-4DAC-853A-99F2623E42F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3E9522-99E6-4CCC-8336-E93E8FC196D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8E35614-E497-4037-9098-C44996FE8116}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8E35614-E497-4037-9098-C44996FE8116}"/>
   </bookViews>
   <sheets>
     <sheet name="b-raceData2024.json" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Column1</t>
   </si>
@@ -52,187 +52,145 @@
     <t>Pts</t>
   </si>
   <si>
-    <t>Lewis Whatley</t>
-  </si>
-  <si>
     <t>FLP</t>
   </si>
   <si>
+    <t>Alan Bush</t>
+  </si>
+  <si>
+    <t>Susan Harvey</t>
+  </si>
+  <si>
+    <t>Jodie Raynsford</t>
+  </si>
+  <si>
+    <t>Paul Williams</t>
+  </si>
+  <si>
+    <t>Martin Gay</t>
+  </si>
+  <si>
+    <t>Kirstie Stone</t>
+  </si>
+  <si>
+    <t>Karen Peddle</t>
+  </si>
+  <si>
+    <t>Duncan Ball</t>
+  </si>
+  <si>
+    <t>Susan Rodrigues</t>
+  </si>
+  <si>
+    <t>Christine Scally</t>
+  </si>
+  <si>
+    <t>Darren Stone</t>
+  </si>
+  <si>
+    <t>Simon Harvey</t>
+  </si>
+  <si>
+    <t>Andy Poulter</t>
+  </si>
+  <si>
+    <t>James Ball</t>
+  </si>
+  <si>
+    <t>Matthew Knight</t>
+  </si>
+  <si>
+    <t>Brooklands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:36	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:40	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22:32	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29:47	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33:17	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26:15	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:59	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27:41	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43:28	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29:59	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24:37	</t>
+  </si>
+  <si>
+    <t>Fiona Keane-Munday</t>
+  </si>
+  <si>
+    <t>Hogmoor Inclosure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31:45	</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:56	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24:36	</t>
+  </si>
+  <si>
+    <t>Chris Peddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28:59	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28:03	</t>
+  </si>
+  <si>
+    <t>Wendy Ockrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41:55	</t>
+  </si>
+  <si>
+    <t>Harvey Ockrim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34:33	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41:54	</t>
+  </si>
+  <si>
+    <t>Paul Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32:34	</t>
+  </si>
+  <si>
+    <t>Louise McIntosh</t>
+  </si>
+  <si>
     <t>Lucy Bass</t>
   </si>
   <si>
-    <t>Alan Bush</t>
-  </si>
-  <si>
-    <t>Susan Harvey</t>
-  </si>
-  <si>
-    <t>Jodie Raynsford</t>
-  </si>
-  <si>
-    <t>Paul Williams</t>
-  </si>
-  <si>
-    <t>Martin Gay</t>
-  </si>
-  <si>
-    <t>Harvey Ockrim</t>
-  </si>
-  <si>
-    <t>Kirstie Stone</t>
-  </si>
-  <si>
-    <t>Karen Peddle</t>
-  </si>
-  <si>
-    <t>Kev Knight</t>
-  </si>
-  <si>
-    <t>Duncan Ball</t>
-  </si>
-  <si>
-    <t>Susan Rodrigues</t>
-  </si>
-  <si>
-    <t>Adrian Keane-Munday</t>
-  </si>
-  <si>
-    <t>Chris Peddle</t>
-  </si>
-  <si>
-    <t>Christine Scally</t>
-  </si>
-  <si>
-    <t>Darren Stone</t>
-  </si>
-  <si>
-    <t>Fiona Keane-Munday</t>
-  </si>
-  <si>
-    <t>Louise McIntosh</t>
-  </si>
-  <si>
-    <t>Paul Bass</t>
-  </si>
-  <si>
-    <t>Sarah Campbell-Foster</t>
-  </si>
-  <si>
-    <t>Simon Harvey</t>
-  </si>
-  <si>
-    <t>Wendy Ockrim</t>
-  </si>
-  <si>
-    <t>Steve Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:47	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:49	</t>
-  </si>
-  <si>
-    <t>Penrith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34:36	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45:28	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47:57	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24:10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20:07	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29:00	</t>
-  </si>
-  <si>
-    <t>Jo Longmuir</t>
-  </si>
-  <si>
-    <t>Whinlatter Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28:14	</t>
-  </si>
-  <si>
-    <t>Hazelwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:31	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27:09	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29:54	</t>
-  </si>
-  <si>
-    <t>Etna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30:49	</t>
-  </si>
-  <si>
-    <t>Alasdair Nuttall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39:18	</t>
-  </si>
-  <si>
-    <t>Seven Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29:47	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:17	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29:22	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34:32	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:20	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34:33	</t>
-  </si>
-  <si>
-    <t>Andy Poulter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26:55	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26:56	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28:05	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:39	</t>
-  </si>
-  <si>
-    <t>James Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26:13	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35:12	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28:11	</t>
+    <t xml:space="preserve">52:29	</t>
   </si>
 </sst>
 </file>
@@ -383,8 +341,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -731,12 +688,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -784,12 +740,12 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,10 +767,10 @@
     <sortCondition ref="D3:D36"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D3F63264-017A-4E07-B914-C5F98CA77055}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D3F63264-017A-4E07-B914-C5F98CA77055}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{741C0D26-66B1-4900-9F9A-207388BA93A5}" name="Column2"/>
     <tableColumn id="3" xr3:uid="{AC85C6D5-0322-45AA-82DD-A19FD0112578}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{8711641C-9A00-4D46-9C48-CB28E1BCC94B}" name="Column4" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8711641C-9A00-4D46-9C48-CB28E1BCC94B}" name="Column4" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{8727F302-2B57-4FB3-856C-2733213E68D8}" name="Column5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1138,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1D6B08-1595-4967-9FDC-03B96CFA29A2}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,485 +1141,421 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D10" s="1">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1">
-        <v>-8.0699999999999994E-2</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D11" s="1">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1">
-        <v>-0.02</v>
-      </c>
-      <c r="E4" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D12" s="1">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.1283</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1414</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="D15" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.2135</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="D20" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.3044</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D23" s="1">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="E14" s="4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="E24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1">
-        <v>9.2700000000000005E-2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1">
-        <v>9.3100000000000002E-2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.12770000000000001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.1288</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.15659999999999999</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.1933</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.19969999999999999</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.249</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.26669999999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.46039999999999998</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.60850000000000004</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
